--- a/OneselfMaven/target/TestData/TestData.xlsx
+++ b/OneselfMaven/target/TestData/TestData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanleyathish.j\eclipse-workspace\OneselfMaven\target\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stanleyathish.j\git\OneSelf-Project\OneselfMaven\target\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD22D3C8-F7E9-4B9C-860A-189B1C021391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C292D8-327A-4204-A30C-EB7F020F07D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{68A80A76-8415-45CB-BE53-490FF9A77846}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
   <si>
     <t xml:space="preserve">UserName </t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Staff Form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First Name </t>
+  </si>
+  <si>
+    <t>hfduhf</t>
   </si>
 </sst>
 </file>
@@ -417,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC40C9FE-F5DE-4238-873E-CD7F1549CBA8}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +514,19 @@
         <v>5</v>
       </c>
     </row>
+    <row r="13" spans="1:2" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
